--- a/DEV/irrelevant_response_classes.xlsx
+++ b/DEV/irrelevant_response_classes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangningchen/Dropbox/CMC/chatbot_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangningchen/DockerDev/Chatbot1.0/DEV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08163CA-28DA-4742-BDD9-5B389BC61051}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8B1E1-1D82-BE4F-80E6-CD9CBE90F4C6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" xr2:uid="{9E0CFCEC-C1C4-7E48-83F4-24C89AAAA180}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>IDClassifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,31 @@
     <t>我欠这么多吗？滞纳金怎么算的？利率多少？</t>
     <rPh sb="0" eb="2">
       <t>wo qian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmLoan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨价还价</t>
+    <rPh sb="0" eb="2">
+      <t>tao jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨价还价</t>
+    <rPh sb="0" eb="2">
+      <t>tao jia huan jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施压</t>
+    <rPh sb="0" eb="1">
+      <t>shi a</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9771AF-F561-3E48-986A-45B81E1F7B7A}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -608,13 +633,12 @@
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -669,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -698,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -727,7 +751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -756,7 +780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -785,7 +809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -814,7 +838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -843,7 +867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -870,6 +894,343 @@
       </c>
       <c r="I9" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
